--- a/biology/Médecine/Fabrication_de_masques_de_protection_en_France/Fabrication_de_masques_de_protection_en_France.xlsx
+++ b/biology/Médecine/Fabrication_de_masques_de_protection_en_France/Fabrication_de_masques_de_protection_en_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La fabrication de masques de protection en France a connu une baisse avant la pandémie de Covid-19. Afin de répondre aux besoins, la production est relancée.
 </t>
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En septembre 2018, la principale usine de masques en France, située à Plaintel, qui pouvait fabriquer jusqu’à 200 millions de masques par an, ferme ses portes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En septembre 2018, la principale usine de masques en France, située à Plaintel, qui pouvait fabriquer jusqu’à 200 millions de masques par an, ferme ses portes.
 En raison de la pandémie de Covid-19, la production est relancée en France.
-Début mars 2020, la France comptait trois producteurs de masques de protection sur son sol. Un mois plus tard, toute une filière a pris corps, portée par plus de 300 TPE et PME sur tout le territoire, qui produisent chaque jour 500 000 masques au total[2]. 
+Début mars 2020, la France comptait trois producteurs de masques de protection sur son sol. Un mois plus tard, toute une filière a pris corps, portée par plus de 300 TPE et PME sur tout le territoire, qui produisent chaque jour 500 000 masques au total. 
 </t>
         </is>
       </c>
@@ -544,14 +558,16 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En mars 2020, l'entreprise Paul Boyé Technologies à Labarthe-sur-Lèze a relancé ses machines pour produire des millions de masques FFP2 pour les soignants[3].
-En avril 2020, Michelin se lance dans la production de masques sur dix sites avec pour objectif est de fabriquer 400 000 pièces par semaine[4].
-Le groupe Chargeurs lance une fabrication via sa filiale Lainière de Picardie BC (usine à Buire Courcelles) sous sa marque Lainiére Santé[5].
-Le même mois, une usine de la société Groupe Kolmi-Hopen située près d'Angers fonctionne 24 heures sur 24 pour produire 270 000 masques FFP2 par jour[6].
-Thuasne (Levallois Perret)[7] mets au point deux modèles réservés dans un premier temps à un usage professionnel, et à destination des professionnels exposées en première ligne (police, commerçant…)[8].
-Eurasia Groupe inaugure le 14 mai 2020, une usine de masques chirurgicaux et FFP2 au Blanc-Mesnil en Île-de-France[9],[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En mars 2020, l'entreprise Paul Boyé Technologies à Labarthe-sur-Lèze a relancé ses machines pour produire des millions de masques FFP2 pour les soignants.
+En avril 2020, Michelin se lance dans la production de masques sur dix sites avec pour objectif est de fabriquer 400 000 pièces par semaine.
+Le groupe Chargeurs lance une fabrication via sa filiale Lainière de Picardie BC (usine à Buire Courcelles) sous sa marque Lainiére Santé.
+Le même mois, une usine de la société Groupe Kolmi-Hopen située près d'Angers fonctionne 24 heures sur 24 pour produire 270 000 masques FFP2 par jour.
+Thuasne (Levallois Perret) mets au point deux modèles réservés dans un premier temps à un usage professionnel, et à destination des professionnels exposées en première ligne (police, commerçant…).
+Eurasia Groupe inaugure le 14 mai 2020, une usine de masques chirurgicaux et FFP2 au Blanc-Mesnil en Île-de-France,.
 </t>
         </is>
       </c>
